--- a/eNamMandiDataMaster.xlsx
+++ b/eNamMandiDataMaster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="418">
   <si>
     <t>AJOWAIN</t>
   </si>
@@ -1275,6 +1275,12 @@
   </si>
   <si>
     <t>Group</t>
+  </si>
+  <si>
+    <t>CHERRY</t>
+  </si>
+  <si>
+    <t>LITCHI</t>
   </si>
 </sst>
 </file>
@@ -1333,8 +1339,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B417" totalsRowShown="0">
-  <autoFilter ref="A1:B417"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B419" totalsRowShown="0">
+  <autoFilter ref="A1:B419"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Commodity"/>
     <tableColumn id="2" name="Group"/>
@@ -1606,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B417"/>
+  <dimension ref="A1:B419"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="B418" sqref="B418:B419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4954,6 +4960,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>416</v>
+      </c>
+      <c r="B418" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>417</v>
+      </c>
+      <c r="B419" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/eNamMandiDataMaster.xlsx
+++ b/eNamMandiDataMaster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="421">
   <si>
     <t>AJOWAIN</t>
   </si>
@@ -1281,6 +1281,15 @@
   </si>
   <si>
     <t>LITCHI</t>
+  </si>
+  <si>
+    <t>RAW JUTE</t>
+  </si>
+  <si>
+    <t>SWEET POTATO</t>
+  </si>
+  <si>
+    <t>APPLE-RED ROYAL LARGE</t>
   </si>
 </sst>
 </file>
@@ -1339,8 +1348,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B419" totalsRowShown="0">
-  <autoFilter ref="A1:B419"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B423" totalsRowShown="0">
+  <autoFilter ref="A1:B423"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Commodity"/>
     <tableColumn id="2" name="Group"/>
@@ -1612,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B419"/>
+  <dimension ref="A1:B422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="B418" sqref="B418:B419"/>
+    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="A423" sqref="A423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4976,6 +4985,30 @@
         <v>8</v>
       </c>
     </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>418</v>
+      </c>
+      <c r="B420" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>419</v>
+      </c>
+      <c r="B421" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>420</v>
+      </c>
+      <c r="B422" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/eNamMandiDataMaster.xlsx
+++ b/eNamMandiDataMaster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="431">
   <si>
     <t>AJOWAIN</t>
   </si>
@@ -1290,6 +1290,36 @@
   </si>
   <si>
     <t>APPLE-RED ROYAL LARGE</t>
+  </si>
+  <si>
+    <t>COPRA GRADE-1</t>
+  </si>
+  <si>
+    <t>SAL SEED</t>
+  </si>
+  <si>
+    <t>GROUNDNUT TJ</t>
+  </si>
+  <si>
+    <t>APPLE -RICH RED SMALL</t>
+  </si>
+  <si>
+    <t>NAVANE</t>
+  </si>
+  <si>
+    <t>APPLE-RED ROYAL SMALL</t>
+  </si>
+  <si>
+    <t>APPLE-GREEN SMITH XL</t>
+  </si>
+  <si>
+    <t>PADDY CO 72</t>
+  </si>
+  <si>
+    <t>PADDY JAWAFOOL</t>
+  </si>
+  <si>
+    <t>WET-BULB TURMERIC</t>
   </si>
 </sst>
 </file>
@@ -1348,8 +1378,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B423" totalsRowShown="0">
-  <autoFilter ref="A1:B423"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B432" totalsRowShown="0">
+  <autoFilter ref="A1:B432"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Commodity"/>
     <tableColumn id="2" name="Group"/>
@@ -1621,10 +1651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B422"/>
+  <dimension ref="A1:B432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423"/>
+    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="B428" sqref="B428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5009,6 +5039,86 @@
         <v>8</v>
       </c>
     </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>421</v>
+      </c>
+      <c r="B423" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>422</v>
+      </c>
+      <c r="B424" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>423</v>
+      </c>
+      <c r="B425" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>424</v>
+      </c>
+      <c r="B426" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>425</v>
+      </c>
+      <c r="B427" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>426</v>
+      </c>
+      <c r="B428" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>427</v>
+      </c>
+      <c r="B429" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>428</v>
+      </c>
+      <c r="B430" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>429</v>
+      </c>
+      <c r="B431" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>430</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/eNamMandiDataMaster.xlsx
+++ b/eNamMandiDataMaster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="433">
   <si>
     <t>AJOWAIN</t>
   </si>
@@ -1320,6 +1320,12 @@
   </si>
   <si>
     <t>WET-BULB TURMERIC</t>
+  </si>
+  <si>
+    <t>SAFFRON</t>
+  </si>
+  <si>
+    <t>SHORGRAM</t>
   </si>
 </sst>
 </file>
@@ -1378,8 +1384,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B432" totalsRowShown="0">
-  <autoFilter ref="A1:B432"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B434" totalsRowShown="0">
+  <autoFilter ref="A1:B434"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Commodity"/>
     <tableColumn id="2" name="Group"/>
@@ -1651,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B432"/>
+  <dimension ref="A1:B434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="B428" sqref="B428"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="B434" sqref="B434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5119,6 +5125,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>431</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>432</v>
+      </c>
+      <c r="B434" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/eNamMandiDataMaster.xlsx
+++ b/eNamMandiDataMaster.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC6A162-8011-4443-A52E-102123081416}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VegMaster" sheetId="2" r:id="rId1"/>
@@ -17,17 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VegMaster!$A$2:$B$394</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="496">
   <si>
     <t>AJOWAIN</t>
   </si>
@@ -1326,12 +1335,201 @@
   </si>
   <si>
     <t>SHORGRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANANA WHITE CHAKRAKELI </t>
+  </si>
+  <si>
+    <t>BANANA KARPURA</t>
+  </si>
+  <si>
+    <t>BANANA AMRUTHAPANI</t>
+  </si>
+  <si>
+    <t>BANANA BONTHA</t>
+  </si>
+  <si>
+    <t>BANANA BHUSHAVALI</t>
+  </si>
+  <si>
+    <t>BANANA RED CHAKRAKELI</t>
+  </si>
+  <si>
+    <t>DAAL - CHANA (BENGAL GRAM)</t>
+  </si>
+  <si>
+    <t>TENDER COCONUT</t>
+  </si>
+  <si>
+    <t>COCONUT WITH HUSK</t>
+  </si>
+  <si>
+    <t>TAPIOCA</t>
+  </si>
+  <si>
+    <t>APPLE-GREEN SMITH LARGE</t>
+  </si>
+  <si>
+    <t>APPLE -RICH RED XL</t>
+  </si>
+  <si>
+    <t>APPLE-GOLDEN LARGE</t>
+  </si>
+  <si>
+    <t>GRAPEFRUIT</t>
+  </si>
+  <si>
+    <t>SPONGE GOURD</t>
+  </si>
+  <si>
+    <t>GHERKIN</t>
+  </si>
+  <si>
+    <t>BUTTON MUSHROOM</t>
+  </si>
+  <si>
+    <t>OYSTER MUSHROOM</t>
+  </si>
+  <si>
+    <t>MINT LEAVES</t>
+  </si>
+  <si>
+    <t>BLACK RICE</t>
+  </si>
+  <si>
+    <t>APPLE-GREEN SMITH MEDIUM</t>
+  </si>
+  <si>
+    <t>BROCCOLI</t>
+  </si>
+  <si>
+    <t>APPLE-GREEN SMITH SMALL</t>
+  </si>
+  <si>
+    <t>SUGAR SNAP PEAS</t>
+  </si>
+  <si>
+    <t>OYSTER MUSHROOM FRESH</t>
+  </si>
+  <si>
+    <t>PASSION FRUIT</t>
+  </si>
+  <si>
+    <t>SPRING ONION</t>
+  </si>
+  <si>
+    <t>WHITE-GINGELY</t>
+  </si>
+  <si>
+    <t>DRY GINGER</t>
+  </si>
+  <si>
+    <t>BANANA OTHERS</t>
+  </si>
+  <si>
+    <t>BANANA ANNAN</t>
+  </si>
+  <si>
+    <t>BANANA NENDRAN</t>
+  </si>
+  <si>
+    <t>BANANA CHORAPOOVAN</t>
+  </si>
+  <si>
+    <t>BANANA ERIKAI</t>
+  </si>
+  <si>
+    <t>BANANA RED KAPPA</t>
+  </si>
+  <si>
+    <t>BANANA PALAYAMKODAN</t>
+  </si>
+  <si>
+    <t>BANANA RASAKADHALI</t>
+  </si>
+  <si>
+    <t>BANANA WHITE KAPPA</t>
+  </si>
+  <si>
+    <t>BANANA NJALIPOOVAN</t>
+  </si>
+  <si>
+    <t>BANANA KARPOORAM</t>
+  </si>
+  <si>
+    <t>BANANA POOVAN</t>
+  </si>
+  <si>
+    <t>BANANA VAZHATHATTA</t>
+  </si>
+  <si>
+    <t>PADDY SABAH</t>
+  </si>
+  <si>
+    <t>BANANA PADATHI</t>
+  </si>
+  <si>
+    <t>BANANA MONTHAN</t>
+  </si>
+  <si>
+    <t>BANANA ROBUSTA</t>
+  </si>
+  <si>
+    <t>CHIRONJI</t>
+  </si>
+  <si>
+    <t>MACE WHOLE</t>
+  </si>
+  <si>
+    <t>TINDA</t>
+  </si>
+  <si>
+    <t>APPLE-RED GOLDEN SMALL</t>
+  </si>
+  <si>
+    <t>BANANA KADALI</t>
+  </si>
+  <si>
+    <t>BANANA KAVERI</t>
+  </si>
+  <si>
+    <t>SAFED MUSLI</t>
+  </si>
+  <si>
+    <t>CURRY LEAVES</t>
+  </si>
+  <si>
+    <t>BANANA MYSORE POOVAN</t>
+  </si>
+  <si>
+    <t>BANANA MONDHAN</t>
+  </si>
+  <si>
+    <t>BLACK PEPPER WHOLE</t>
+  </si>
+  <si>
+    <t>LARGE CARDAMOM</t>
+  </si>
+  <si>
+    <t>CHILLI-DEEPIKA</t>
+  </si>
+  <si>
+    <t>PADDY-ERRA MALLELUE</t>
+  </si>
+  <si>
+    <t>GALGAL (HILL LEMON)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> APPLE-RED GOLDEN LARGE</t>
+  </si>
+  <si>
+    <t>PADDY CO 46</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1384,11 +1582,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B434" totalsRowShown="0">
-  <autoFilter ref="A1:B434"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:B497" totalsRowShown="0">
+  <autoFilter ref="A1:B497" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Commodity"/>
-    <tableColumn id="2" name="Group"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Commodity"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Group"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1656,20 +1854,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B434"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="B434" sqref="B434"/>
+    <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
+      <selection activeCell="B499" sqref="B499"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>414</v>
       </c>
@@ -1677,7 +1875,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1685,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1693,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1701,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1709,7 +1907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1717,7 +1915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1725,7 +1923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1733,7 +1931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1741,7 +1939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1749,7 +1947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1757,7 +1955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1765,7 +1963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1773,7 +1971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1781,7 +1979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1789,7 +1987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1797,7 +1995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1805,7 +2003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1813,7 +2011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1821,7 +2019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1829,7 +2027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1837,7 +2035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1845,7 +2043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1853,7 +2051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1861,7 +2059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1869,7 +2067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1877,7 +2075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1885,7 +2083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1893,7 +2091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1901,7 +2099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1909,7 +2107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1917,7 +2115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1925,7 +2123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1933,7 +2131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1941,7 +2139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1949,7 +2147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1957,7 +2155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1965,7 +2163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1973,7 +2171,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1981,7 +2179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1989,7 +2187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1997,7 +2195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2005,7 +2203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -2013,7 +2211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2021,7 +2219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -2029,7 +2227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2037,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -2045,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -2053,7 +2251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -2061,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -2069,7 +2267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -2077,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -2085,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -2093,7 +2291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -2101,7 +2299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -2109,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -2117,7 +2315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -2125,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -2133,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -2141,7 +2339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -2149,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -2157,7 +2355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -2165,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -2173,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -2181,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -2189,7 +2387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2197,7 +2395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2205,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2213,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2221,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -2229,7 +2427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2237,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -2245,7 +2443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2253,7 +2451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2261,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2269,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2277,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2285,7 +2483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -2293,7 +2491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2301,7 +2499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2309,7 +2507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2317,7 +2515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2325,7 +2523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -2333,7 +2531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -2341,7 +2539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2349,7 +2547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -2357,7 +2555,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -2365,7 +2563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -2373,7 +2571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -2381,7 +2579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2389,7 +2587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -2397,7 +2595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -2405,7 +2603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -2413,7 +2611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -2421,7 +2619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -2429,7 +2627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -2437,7 +2635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -2445,7 +2643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -2453,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -2461,7 +2659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -2469,7 +2667,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -2477,7 +2675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -2485,7 +2683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -2493,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -2501,7 +2699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -2509,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>110</v>
       </c>
@@ -2517,7 +2715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>111</v>
       </c>
@@ -2525,7 +2723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -2533,7 +2731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -2541,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -2549,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -2557,7 +2755,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -2565,7 +2763,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -2573,7 +2771,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -2581,7 +2779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>119</v>
       </c>
@@ -2589,7 +2787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>120</v>
       </c>
@@ -2597,7 +2795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>121</v>
       </c>
@@ -2605,7 +2803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>122</v>
       </c>
@@ -2613,7 +2811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>123</v>
       </c>
@@ -2621,7 +2819,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>124</v>
       </c>
@@ -2629,7 +2827,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>125</v>
       </c>
@@ -2637,7 +2835,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>126</v>
       </c>
@@ -2645,7 +2843,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>127</v>
       </c>
@@ -2653,7 +2851,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>128</v>
       </c>
@@ -2661,7 +2859,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>129</v>
       </c>
@@ -2669,7 +2867,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>130</v>
       </c>
@@ -2677,7 +2875,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>131</v>
       </c>
@@ -2685,7 +2883,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>132</v>
       </c>
@@ -2693,7 +2891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>133</v>
       </c>
@@ -2701,7 +2899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>134</v>
       </c>
@@ -2709,7 +2907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>135</v>
       </c>
@@ -2717,7 +2915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>136</v>
       </c>
@@ -2725,7 +2923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>137</v>
       </c>
@@ -2733,7 +2931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>138</v>
       </c>
@@ -2741,7 +2939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>139</v>
       </c>
@@ -2749,7 +2947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>140</v>
       </c>
@@ -2757,7 +2955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>141</v>
       </c>
@@ -2765,7 +2963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>142</v>
       </c>
@@ -2773,7 +2971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>143</v>
       </c>
@@ -2781,7 +2979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>144</v>
       </c>
@@ -2789,7 +2987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>145</v>
       </c>
@@ -2797,7 +2995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>146</v>
       </c>
@@ -2805,7 +3003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>147</v>
       </c>
@@ -2813,7 +3011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>148</v>
       </c>
@@ -2821,7 +3019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>149</v>
       </c>
@@ -2829,7 +3027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>150</v>
       </c>
@@ -2837,7 +3035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>151</v>
       </c>
@@ -2845,7 +3043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>152</v>
       </c>
@@ -2853,7 +3051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>153</v>
       </c>
@@ -2861,7 +3059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>154</v>
       </c>
@@ -2869,7 +3067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>155</v>
       </c>
@@ -2877,7 +3075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>156</v>
       </c>
@@ -2885,7 +3083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>157</v>
       </c>
@@ -2893,7 +3091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>158</v>
       </c>
@@ -2901,7 +3099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>159</v>
       </c>
@@ -2909,7 +3107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>160</v>
       </c>
@@ -2917,7 +3115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>161</v>
       </c>
@@ -2925,7 +3123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>162</v>
       </c>
@@ -2933,7 +3131,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>163</v>
       </c>
@@ -2941,7 +3139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>164</v>
       </c>
@@ -2949,7 +3147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>165</v>
       </c>
@@ -2957,7 +3155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>166</v>
       </c>
@@ -2965,7 +3163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>167</v>
       </c>
@@ -2973,7 +3171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>168</v>
       </c>
@@ -2981,7 +3179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>169</v>
       </c>
@@ -2989,7 +3187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>170</v>
       </c>
@@ -2997,7 +3195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>171</v>
       </c>
@@ -3005,7 +3203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>172</v>
       </c>
@@ -3013,7 +3211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>173</v>
       </c>
@@ -3021,7 +3219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>174</v>
       </c>
@@ -3029,7 +3227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>175</v>
       </c>
@@ -3037,7 +3235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>176</v>
       </c>
@@ -3045,7 +3243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>177</v>
       </c>
@@ -3053,7 +3251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>178</v>
       </c>
@@ -3061,7 +3259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>179</v>
       </c>
@@ -3069,7 +3267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>180</v>
       </c>
@@ -3077,7 +3275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>181</v>
       </c>
@@ -3085,7 +3283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>182</v>
       </c>
@@ -3093,7 +3291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>183</v>
       </c>
@@ -3101,7 +3299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>184</v>
       </c>
@@ -3109,7 +3307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>185</v>
       </c>
@@ -3117,7 +3315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>186</v>
       </c>
@@ -3125,7 +3323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>187</v>
       </c>
@@ -3133,7 +3331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>188</v>
       </c>
@@ -3141,7 +3339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>189</v>
       </c>
@@ -3149,7 +3347,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>190</v>
       </c>
@@ -3157,7 +3355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>191</v>
       </c>
@@ -3165,7 +3363,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>192</v>
       </c>
@@ -3173,7 +3371,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>193</v>
       </c>
@@ -3181,7 +3379,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>194</v>
       </c>
@@ -3189,7 +3387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>195</v>
       </c>
@@ -3197,7 +3395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>196</v>
       </c>
@@ -3205,7 +3403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>197</v>
       </c>
@@ -3213,7 +3411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>198</v>
       </c>
@@ -3221,7 +3419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>199</v>
       </c>
@@ -3229,7 +3427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>200</v>
       </c>
@@ -3237,7 +3435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>201</v>
       </c>
@@ -3245,7 +3443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>202</v>
       </c>
@@ -3253,7 +3451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>203</v>
       </c>
@@ -3261,7 +3459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>204</v>
       </c>
@@ -3269,7 +3467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>205</v>
       </c>
@@ -3277,7 +3475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>206</v>
       </c>
@@ -3285,7 +3483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>207</v>
       </c>
@@ -3293,7 +3491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>208</v>
       </c>
@@ -3301,7 +3499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>209</v>
       </c>
@@ -3309,7 +3507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>210</v>
       </c>
@@ -3317,7 +3515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>211</v>
       </c>
@@ -3325,7 +3523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>212</v>
       </c>
@@ -3333,7 +3531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>213</v>
       </c>
@@ -3341,7 +3539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>214</v>
       </c>
@@ -3349,7 +3547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>215</v>
       </c>
@@ -3357,7 +3555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>216</v>
       </c>
@@ -3365,7 +3563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>217</v>
       </c>
@@ -3373,7 +3571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>218</v>
       </c>
@@ -3381,7 +3579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>219</v>
       </c>
@@ -3389,7 +3587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>220</v>
       </c>
@@ -3397,7 +3595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>221</v>
       </c>
@@ -3405,7 +3603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>222</v>
       </c>
@@ -3413,7 +3611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>223</v>
       </c>
@@ -3421,7 +3619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>224</v>
       </c>
@@ -3429,7 +3627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>225</v>
       </c>
@@ -3437,7 +3635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>226</v>
       </c>
@@ -3445,7 +3643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>227</v>
       </c>
@@ -3453,7 +3651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>228</v>
       </c>
@@ -3461,7 +3659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>229</v>
       </c>
@@ -3469,7 +3667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>230</v>
       </c>
@@ -3477,7 +3675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>231</v>
       </c>
@@ -3485,7 +3683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>232</v>
       </c>
@@ -3493,7 +3691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>233</v>
       </c>
@@ -3501,7 +3699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>234</v>
       </c>
@@ -3509,7 +3707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>235</v>
       </c>
@@ -3517,7 +3715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>236</v>
       </c>
@@ -3525,7 +3723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>237</v>
       </c>
@@ -3533,7 +3731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>238</v>
       </c>
@@ -3541,7 +3739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>239</v>
       </c>
@@ -3549,7 +3747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>240</v>
       </c>
@@ -3557,7 +3755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>241</v>
       </c>
@@ -3565,7 +3763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>242</v>
       </c>
@@ -3573,7 +3771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>243</v>
       </c>
@@ -3581,7 +3779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>244</v>
       </c>
@@ -3589,7 +3787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>245</v>
       </c>
@@ -3597,7 +3795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>246</v>
       </c>
@@ -3605,7 +3803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>247</v>
       </c>
@@ -3613,7 +3811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>248</v>
       </c>
@@ -3621,7 +3819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>249</v>
       </c>
@@ -3629,7 +3827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>250</v>
       </c>
@@ -3637,7 +3835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>251</v>
       </c>
@@ -3645,7 +3843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>252</v>
       </c>
@@ -3653,7 +3851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>253</v>
       </c>
@@ -3661,7 +3859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>254</v>
       </c>
@@ -3669,7 +3867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>255</v>
       </c>
@@ -3677,7 +3875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>256</v>
       </c>
@@ -3685,7 +3883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>257</v>
       </c>
@@ -3693,7 +3891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>258</v>
       </c>
@@ -3701,7 +3899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>259</v>
       </c>
@@ -3709,7 +3907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>260</v>
       </c>
@@ -3717,7 +3915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>261</v>
       </c>
@@ -3725,7 +3923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>262</v>
       </c>
@@ -3733,7 +3931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>263</v>
       </c>
@@ -3741,7 +3939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>264</v>
       </c>
@@ -3749,7 +3947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>265</v>
       </c>
@@ -3757,7 +3955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>266</v>
       </c>
@@ -3765,7 +3963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>267</v>
       </c>
@@ -3773,7 +3971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>268</v>
       </c>
@@ -3781,7 +3979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>269</v>
       </c>
@@ -3789,7 +3987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>270</v>
       </c>
@@ -3797,7 +3995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>271</v>
       </c>
@@ -3805,7 +4003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>272</v>
       </c>
@@ -3813,7 +4011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>273</v>
       </c>
@@ -3821,7 +4019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>274</v>
       </c>
@@ -3829,7 +4027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>275</v>
       </c>
@@ -3837,7 +4035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>276</v>
       </c>
@@ -3845,7 +4043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>277</v>
       </c>
@@ -3853,7 +4051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>278</v>
       </c>
@@ -3861,7 +4059,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>279</v>
       </c>
@@ -3869,7 +4067,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>280</v>
       </c>
@@ -3877,7 +4075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>281</v>
       </c>
@@ -3885,7 +4083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>282</v>
       </c>
@@ -3893,7 +4091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>283</v>
       </c>
@@ -3901,7 +4099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>284</v>
       </c>
@@ -3909,7 +4107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>285</v>
       </c>
@@ -3917,7 +4115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>286</v>
       </c>
@@ -3925,7 +4123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>287</v>
       </c>
@@ -3933,7 +4131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>288</v>
       </c>
@@ -3941,7 +4139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>289</v>
       </c>
@@ -3949,7 +4147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>290</v>
       </c>
@@ -3957,7 +4155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>291</v>
       </c>
@@ -3965,7 +4163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>292</v>
       </c>
@@ -3973,7 +4171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>293</v>
       </c>
@@ -3981,7 +4179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>294</v>
       </c>
@@ -3989,7 +4187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>295</v>
       </c>
@@ -3997,7 +4195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>296</v>
       </c>
@@ -4005,7 +4203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>297</v>
       </c>
@@ -4013,7 +4211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>298</v>
       </c>
@@ -4021,7 +4219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>299</v>
       </c>
@@ -4029,7 +4227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>300</v>
       </c>
@@ -4037,7 +4235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>301</v>
       </c>
@@ -4045,7 +4243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>302</v>
       </c>
@@ -4053,7 +4251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>303</v>
       </c>
@@ -4061,7 +4259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>304</v>
       </c>
@@ -4069,7 +4267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>305</v>
       </c>
@@ -4077,7 +4275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>306</v>
       </c>
@@ -4085,7 +4283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>307</v>
       </c>
@@ -4093,7 +4291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>308</v>
       </c>
@@ -4101,7 +4299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>309</v>
       </c>
@@ -4109,7 +4307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>310</v>
       </c>
@@ -4117,7 +4315,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>311</v>
       </c>
@@ -4125,7 +4323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>312</v>
       </c>
@@ -4133,7 +4331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>313</v>
       </c>
@@ -4141,7 +4339,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>314</v>
       </c>
@@ -4149,7 +4347,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>315</v>
       </c>
@@ -4157,7 +4355,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>316</v>
       </c>
@@ -4165,7 +4363,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>317</v>
       </c>
@@ -4173,7 +4371,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>318</v>
       </c>
@@ -4181,7 +4379,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>319</v>
       </c>
@@ -4189,7 +4387,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>320</v>
       </c>
@@ -4197,7 +4395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>321</v>
       </c>
@@ -4205,7 +4403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>322</v>
       </c>
@@ -4213,7 +4411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>323</v>
       </c>
@@ -4221,7 +4419,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>324</v>
       </c>
@@ -4229,7 +4427,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>325</v>
       </c>
@@ -4237,7 +4435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>326</v>
       </c>
@@ -4245,7 +4443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>327</v>
       </c>
@@ -4253,7 +4451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>328</v>
       </c>
@@ -4261,7 +4459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>329</v>
       </c>
@@ -4269,7 +4467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>330</v>
       </c>
@@ -4277,7 +4475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>331</v>
       </c>
@@ -4285,7 +4483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>332</v>
       </c>
@@ -4293,7 +4491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>333</v>
       </c>
@@ -4301,7 +4499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>334</v>
       </c>
@@ -4309,7 +4507,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>335</v>
       </c>
@@ -4317,7 +4515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>336</v>
       </c>
@@ -4325,7 +4523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>337</v>
       </c>
@@ -4333,7 +4531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>338</v>
       </c>
@@ -4341,7 +4539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>339</v>
       </c>
@@ -4349,7 +4547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>340</v>
       </c>
@@ -4357,7 +4555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>341</v>
       </c>
@@ -4365,7 +4563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>342</v>
       </c>
@@ -4373,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>343</v>
       </c>
@@ -4381,7 +4579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>344</v>
       </c>
@@ -4389,7 +4587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>345</v>
       </c>
@@ -4397,7 +4595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>346</v>
       </c>
@@ -4405,7 +4603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>347</v>
       </c>
@@ -4413,7 +4611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>348</v>
       </c>
@@ -4421,7 +4619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>349</v>
       </c>
@@ -4429,7 +4627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>350</v>
       </c>
@@ -4437,7 +4635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>351</v>
       </c>
@@ -4445,7 +4643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>352</v>
       </c>
@@ -4453,7 +4651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>353</v>
       </c>
@@ -4461,7 +4659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>354</v>
       </c>
@@ -4469,7 +4667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>355</v>
       </c>
@@ -4477,7 +4675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>356</v>
       </c>
@@ -4485,7 +4683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>357</v>
       </c>
@@ -4493,7 +4691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>358</v>
       </c>
@@ -4501,7 +4699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>359</v>
       </c>
@@ -4509,7 +4707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>360</v>
       </c>
@@ -4517,7 +4715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>361</v>
       </c>
@@ -4525,7 +4723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>362</v>
       </c>
@@ -4533,7 +4731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>44</v>
       </c>
@@ -4541,7 +4739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>140</v>
       </c>
@@ -4549,7 +4747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>363</v>
       </c>
@@ -4557,7 +4755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>364</v>
       </c>
@@ -4565,7 +4763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>365</v>
       </c>
@@ -4573,7 +4771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>366</v>
       </c>
@@ -4581,7 +4779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>367</v>
       </c>
@@ -4589,7 +4787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>368</v>
       </c>
@@ -4597,7 +4795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>369</v>
       </c>
@@ -4605,7 +4803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>248</v>
       </c>
@@ -4613,7 +4811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>281</v>
       </c>
@@ -4621,7 +4819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>370</v>
       </c>
@@ -4629,7 +4827,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>371</v>
       </c>
@@ -4637,7 +4835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>306</v>
       </c>
@@ -4645,7 +4843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>327</v>
       </c>
@@ -4653,7 +4851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>335</v>
       </c>
@@ -4661,7 +4859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>372</v>
       </c>
@@ -4669,7 +4867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>373</v>
       </c>
@@ -4677,7 +4875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>374</v>
       </c>
@@ -4685,7 +4883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>375</v>
       </c>
@@ -4693,7 +4891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>376</v>
       </c>
@@ -4701,7 +4899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>377</v>
       </c>
@@ -4709,7 +4907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>378</v>
       </c>
@@ -4717,7 +4915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>379</v>
       </c>
@@ -4725,7 +4923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>380</v>
       </c>
@@ -4733,7 +4931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>381</v>
       </c>
@@ -4741,7 +4939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>382</v>
       </c>
@@ -4749,7 +4947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>383</v>
       </c>
@@ -4757,7 +4955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>384</v>
       </c>
@@ -4765,7 +4963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>385</v>
       </c>
@@ -4773,7 +4971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>386</v>
       </c>
@@ -4781,7 +4979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>387</v>
       </c>
@@ -4789,7 +4987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>388</v>
       </c>
@@ -4797,7 +4995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>389</v>
       </c>
@@ -4805,7 +5003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>390</v>
       </c>
@@ -4813,7 +5011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>391</v>
       </c>
@@ -4821,7 +5019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>249</v>
       </c>
@@ -4829,7 +5027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>392</v>
       </c>
@@ -4837,7 +5035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>393</v>
       </c>
@@ -4845,7 +5043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>394</v>
       </c>
@@ -4853,7 +5051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>395</v>
       </c>
@@ -4861,7 +5059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>396</v>
       </c>
@@ -4869,7 +5067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>397</v>
       </c>
@@ -4877,7 +5075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>398</v>
       </c>
@@ -4885,7 +5083,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>399</v>
       </c>
@@ -4893,7 +5091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>400</v>
       </c>
@@ -4901,7 +5099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>401</v>
       </c>
@@ -4909,7 +5107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>402</v>
       </c>
@@ -4917,7 +5115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>403</v>
       </c>
@@ -4925,7 +5123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>404</v>
       </c>
@@ -4933,7 +5131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>405</v>
       </c>
@@ -4941,7 +5139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>406</v>
       </c>
@@ -4949,7 +5147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>407</v>
       </c>
@@ -4957,7 +5155,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>408</v>
       </c>
@@ -4965,7 +5163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>409</v>
       </c>
@@ -4973,7 +5171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>410</v>
       </c>
@@ -4981,7 +5179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>411</v>
       </c>
@@ -4989,7 +5187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>412</v>
       </c>
@@ -4997,7 +5195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>413</v>
       </c>
@@ -5005,7 +5203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>416</v>
       </c>
@@ -5013,7 +5211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>417</v>
       </c>
@@ -5021,7 +5219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>418</v>
       </c>
@@ -5029,7 +5227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>419</v>
       </c>
@@ -5037,7 +5235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>420</v>
       </c>
@@ -5045,7 +5243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>421</v>
       </c>
@@ -5053,7 +5251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>422</v>
       </c>
@@ -5061,7 +5259,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>423</v>
       </c>
@@ -5069,7 +5267,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>424</v>
       </c>
@@ -5077,7 +5275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>425</v>
       </c>
@@ -5085,7 +5283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>426</v>
       </c>
@@ -5093,7 +5291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>427</v>
       </c>
@@ -5101,7 +5299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>428</v>
       </c>
@@ -5109,7 +5307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>429</v>
       </c>
@@ -5117,7 +5315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>430</v>
       </c>
@@ -5125,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>431</v>
       </c>
@@ -5133,11 +5331,515 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>432</v>
       </c>
       <c r="B434" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>433</v>
+      </c>
+      <c r="B435" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>434</v>
+      </c>
+      <c r="B436" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>435</v>
+      </c>
+      <c r="B437" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>436</v>
+      </c>
+      <c r="B438" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>438</v>
+      </c>
+      <c r="B440" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>439</v>
+      </c>
+      <c r="B441" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>440</v>
+      </c>
+      <c r="B442" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>441</v>
+      </c>
+      <c r="B443" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>442</v>
+      </c>
+      <c r="B444" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>443</v>
+      </c>
+      <c r="B445" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>444</v>
+      </c>
+      <c r="B446" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>445</v>
+      </c>
+      <c r="B447" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>446</v>
+      </c>
+      <c r="B448" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>447</v>
+      </c>
+      <c r="B449" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>448</v>
+      </c>
+      <c r="B450" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>449</v>
+      </c>
+      <c r="B451" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>450</v>
+      </c>
+      <c r="B452" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>451</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>452</v>
+      </c>
+      <c r="B454" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>453</v>
+      </c>
+      <c r="B455" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>455</v>
+      </c>
+      <c r="B457" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>457</v>
+      </c>
+      <c r="B459" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>458</v>
+      </c>
+      <c r="B460" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>459</v>
+      </c>
+      <c r="B461" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>460</v>
+      </c>
+      <c r="B462" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>462</v>
+      </c>
+      <c r="B464" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>464</v>
+      </c>
+      <c r="B466" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>474</v>
+      </c>
+      <c r="B476" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>475</v>
+      </c>
+      <c r="B477" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>476</v>
+      </c>
+      <c r="B478" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>477</v>
+      </c>
+      <c r="B479" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>478</v>
+      </c>
+      <c r="B480" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>479</v>
+      </c>
+      <c r="B481" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>486</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>488</v>
+      </c>
+      <c r="B490" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>489</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>490</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>491</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>492</v>
+      </c>
+      <c r="B494" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>493</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>494</v>
+      </c>
+      <c r="B496" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>495</v>
+      </c>
+      <c r="B497" t="s">
         <v>20</v>
       </c>
     </row>
